--- a/data/init_data.xlsx
+++ b/data/init_data.xlsx
@@ -128,19 +128,19 @@
     <t>确诊</t>
   </si>
   <si>
-    <t>2019-01-31</t>
+    <t>2019-12-31</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>2020-01-3</t>
+    <t>2020-01-03</t>
   </si>
   <si>
     <t>08:00</t>
   </si>
   <si>
-    <t>2020-01-5</t>
+    <t>2020-01-05</t>
   </si>
   <si>
     <t>2020-01-11</t>
